--- a/biology/Zoologie/Corydoras_sterbai/Corydoras_sterbai.xlsx
+++ b/biology/Zoologie/Corydoras_sterbai/Corydoras_sterbai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corydoras de Sterba (Corydoras sterbai) est une espèce de poissons-chats (ordre Siluriformes)  d'eau douce. En aquariophilie, c'est l'un des Corydoras les plus populaires pour sa robe très attrayante et sa disponibilité en magasin.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras sterbai est de couleur plutôt gris sombre avec sept ou huit bandes de taches blanches du front au pédoncule caudal. Les nageoires pectorales et ventrales sont orange.
 Il est parfois confondu avec Corydoras haraldschultzi, la différence est que ce dernier a des points noirs sur un fond blanc sur la tête, alors que C. sterbai a un motif de points blancs sur fond noir.  La forme albinos de C. sterbai a été récemment commercialisée.
@@ -544,7 +558,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire d'Amérique du Sud, dans le Rio Guapore traversant le Brésil et la Bolivie.
 </t>
@@ -575,7 +591,9 @@
           <t>En aquarium</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En captivité Corydoras sterbai accepte une grande variété d'aliments préparés et surgelés, ils sont par exemple friands de vers de vase rouges. Les flocons peuvent constituer une bonne base de l'alimentation, pour peu qu'ils parviennent au fond. On préfèrera des pastilles pour corydoras et poissons de fond omnivores.
 Comme beaucoup de Corydoras, Corydoras sterbai devrait idéalement être maintenu en groupes de 5 ou 6 individus.
